--- a/datastatic/datasets/online/SDG11_ModalSplit_Freight_transport_Trains_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG11_ModalSplit_Freight_transport_Trains_EUROSTAT_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_Environment_Modal_Split_of_freight_transport_EUROSTAT_2013.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_Environment_Modal_Split_of_fr" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/SDG11_ModalSplit_Freight_transport_Trains_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG11_ModalSplit_Freight_transport_Trains_EUROSTAT_2014.xlsx
@@ -296,7 +296,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -319,6 +319,10 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -361,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -406,6 +410,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -1190,7 +1197,9 @@
       <c r="A64" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="13"/>
+      <c r="B64" s="15">
+        <v>3.1</v>
+      </c>
       <c r="C64" s="13">
         <v>3.1</v>
       </c>
@@ -1242,7 +1251,9 @@
       <c r="A67" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="13"/>
+      <c r="B67" s="15">
+        <v>5.1</v>
+      </c>
       <c r="C67" s="13">
         <v>5.1</v>
       </c>
@@ -1258,7 +1269,9 @@
       <c r="A68" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="13"/>
+      <c r="B68" s="15">
+        <v>5.3</v>
+      </c>
       <c r="C68" s="13">
         <v>5.3</v>
       </c>
@@ -1273,58 +1286,58 @@
     <row r="69">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
     </row>
     <row r="70">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
     </row>
     <row r="71">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
     </row>
     <row r="72">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
     </row>
     <row r="73">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
     </row>
     <row r="74">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
     </row>
     <row r="75">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
     </row>
     <row r="76">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/datastatic/datasets/online/SDG11_ModalSplit_Freight_transport_Trains_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG11_ModalSplit_Freight_transport_Trains_EUROSTAT_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_Environment_Modal_Split_of_freight_transport_EUROSTAT_2013.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_Environment_Modal_Split_of_fr" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -296,7 +296,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -319,6 +319,10 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -361,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -406,6 +410,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -1190,7 +1197,9 @@
       <c r="A64" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="13"/>
+      <c r="B64" s="15">
+        <v>3.1</v>
+      </c>
       <c r="C64" s="13">
         <v>3.1</v>
       </c>
@@ -1242,7 +1251,9 @@
       <c r="A67" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="13"/>
+      <c r="B67" s="15">
+        <v>5.1</v>
+      </c>
       <c r="C67" s="13">
         <v>5.1</v>
       </c>
@@ -1258,7 +1269,9 @@
       <c r="A68" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="13"/>
+      <c r="B68" s="15">
+        <v>5.3</v>
+      </c>
       <c r="C68" s="13">
         <v>5.3</v>
       </c>
@@ -1273,58 +1286,58 @@
     <row r="69">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
     </row>
     <row r="70">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
     </row>
     <row r="71">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
     </row>
     <row r="72">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
     </row>
     <row r="73">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
     </row>
     <row r="74">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
     </row>
     <row r="75">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
     </row>
     <row r="76">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/datastatic/datasets/online/SDG11_ModalSplit_Freight_transport_Trains_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG11_ModalSplit_Freight_transport_Trains_EUROSTAT_2014.xlsx
@@ -425,7 +425,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG11_ModalSplit_Freight_transport_Trains_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG11_ModalSplit_Freight_transport_Trains_EUROSTAT_2014.xlsx
@@ -425,7 +425,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
